--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,274 +46,295 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>poorly</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>however</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>piece</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>paid</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>disappointing</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>air</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>interest</t>
   </si>
   <si>
-    <t>balls</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>doll</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>looked</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
     <t>within</t>
   </si>
   <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>way</t>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>could</t>
   </si>
   <si>
     <t>ordered</t>
   </si>
   <si>
-    <t>sent</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>toy</t>
+    <t>5</t>
   </si>
   <si>
     <t>never</t>
   </si>
   <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>son</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>set</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>like</t>
@@ -322,166 +343,190 @@
     <t>bought</t>
   </si>
   <si>
-    <t>one</t>
+    <t>really</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>challenge</t>
+  </si>
+  <si>
+    <t>blast</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>elf</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>wait</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>helicopter</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>wait</t>
+    <t>books</t>
+  </si>
+  <si>
+    <t>bean</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>blast</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>ages</t>
+  </si>
+  <si>
+    <t>educational</t>
+  </si>
+  <si>
+    <t>pleased</t>
   </si>
   <si>
     <t>thomas</t>
   </si>
   <si>
-    <t>ages</t>
-  </si>
-  <si>
-    <t>challenge</t>
+    <t>lego</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>books</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>lego</t>
-  </si>
-  <si>
     <t>challenging</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>educational</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>lots</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>hours</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>games</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>every</t>
+    <t>play</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>children</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>time</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -842,7 +887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +895,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -911,13 +956,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9864864864864865</v>
+        <v>0.9932432432432432</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -929,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K3">
-        <v>0.8615384615384616</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -953,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -961,13 +1006,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9859154929577465</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="C4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -979,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K4">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1003,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1011,13 +1056,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9789473684210527</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1029,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K5">
-        <v>0.8301886792452831</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1053,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1061,13 +1106,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9611650485436893</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="C6">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1079,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K6">
-        <v>0.8297872340425532</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1103,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1111,13 +1156,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9444444444444444</v>
+        <v>0.9514563106796117</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1129,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K7">
-        <v>0.8125</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1153,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1161,13 +1206,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9354838709677419</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C8">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1179,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K8">
-        <v>0.8049792531120332</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>388</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1203,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1211,13 +1256,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9354838709677419</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1229,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K9">
-        <v>0.7792207792207793</v>
+        <v>0.84375</v>
       </c>
       <c r="L9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1253,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1261,13 +1306,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.90625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C10">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1279,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K10">
-        <v>0.7733142037302726</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L10">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>539</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1303,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1311,13 +1356,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8913043478260869</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1329,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K11">
-        <v>0.7311827956989247</v>
+        <v>0.7987551867219918</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>385</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>385</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1353,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1361,13 +1406,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8524590163934426</v>
+        <v>0.875</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1379,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>0.7155963302752294</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1403,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>93</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1411,13 +1456,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8412698412698413</v>
+        <v>0.859375</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1429,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>0.6964285714285714</v>
+        <v>0.7503586800573888</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>523</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>523</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1453,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1461,13 +1506,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8341232227488151</v>
+        <v>0.8412698412698413</v>
       </c>
       <c r="C14">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1479,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K14">
-        <v>0.6964285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1503,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1511,13 +1556,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1529,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K15">
-        <v>0.6909090909090909</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1553,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1561,13 +1606,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.796875</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1579,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K16">
-        <v>0.6818181818181818</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1603,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1611,13 +1656,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7681159420289855</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1629,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>0.6620111731843575</v>
+        <v>0.709480122324159</v>
       </c>
       <c r="L17">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M17">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1650,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1661,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7592592592592593</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1679,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K18">
-        <v>0.6445783132530121</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1703,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1711,13 +1756,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.8104265402843602</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1729,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K19">
-        <v>0.6341463414634146</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1753,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1761,13 +1806,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7432432432432432</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1779,19 +1824,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K20">
-        <v>0.6231884057971014</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1803,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1811,13 +1856,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7368421052631579</v>
+        <v>0.8</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1829,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>0.610655737704918</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>745</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>745</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1853,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>475</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1861,13 +1906,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7368421052631579</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1879,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K22">
-        <v>0.59375</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1903,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1911,13 +1956,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7319587628865979</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1929,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K23">
-        <v>0.5925925925925926</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1953,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1961,13 +2006,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7228915662650602</v>
+        <v>0.7628865979381443</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1982,16 +2027,16 @@
         <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2003,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2011,13 +2056,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.7045454545454546</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2029,19 +2074,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K25">
-        <v>0.5811965811965812</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2053,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2061,13 +2106,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.703125</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2082,16 +2127,16 @@
         <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2103,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2111,38 +2156,38 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6857142857142857</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="C27">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27">
+        <v>0.5853658536585366</v>
+      </c>
+      <c r="L27">
         <v>24</v>
       </c>
-      <c r="D27">
+      <c r="M27">
         <v>24</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>11</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="L27">
-        <v>96</v>
-      </c>
-      <c r="M27">
-        <v>96</v>
-      </c>
       <c r="N27">
         <v>1</v>
       </c>
@@ -2153,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>93</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2161,13 +2206,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6585365853658537</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2179,19 +2224,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5812807881773399</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>708</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2200,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2211,13 +2256,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6481481481481481</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2229,19 +2274,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K29">
-        <v>0.4838709677419355</v>
+        <v>0.5682451253481894</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2253,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2261,13 +2306,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6347826086956522</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="C30">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2279,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K30">
-        <v>0.48</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2303,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2311,13 +2356,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6237623762376238</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="C31">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2329,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K31">
-        <v>0.4666666666666667</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L31">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2353,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2361,49 +2406,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6190476190476191</v>
+        <v>0.6683168316831684</v>
       </c>
       <c r="C32">
+        <v>135</v>
+      </c>
+      <c r="D32">
+        <v>135</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>67</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32">
+        <v>0.5094339622641509</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>26</v>
-      </c>
-      <c r="D32">
-        <v>26</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>16</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32">
-        <v>0.4428571428571428</v>
-      </c>
-      <c r="L32">
-        <v>31</v>
-      </c>
-      <c r="M32">
-        <v>31</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2411,13 +2456,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5882352941176471</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2429,19 +2474,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K33">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2453,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2461,37 +2506,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5746031746031746</v>
+        <v>0.6579710144927536</v>
       </c>
       <c r="C34">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="D34">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K34">
-        <v>0.3961038961038961</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2503,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>93</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2511,13 +2556,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2529,19 +2574,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="K35">
-        <v>0.3939000648929267</v>
+        <v>0.475</v>
       </c>
       <c r="L35">
-        <v>607</v>
+        <v>57</v>
       </c>
       <c r="M35">
-        <v>607</v>
+        <v>57</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2553,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>934</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2561,13 +2606,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5517241379310345</v>
+        <v>0.609375</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2579,31 +2624,31 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <v>25</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K36">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+      <c r="M36">
+        <v>18</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>26</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="L36">
-        <v>20</v>
-      </c>
-      <c r="M36">
-        <v>22</v>
-      </c>
-      <c r="N36">
-        <v>0.91</v>
-      </c>
-      <c r="O36">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2611,13 +2656,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2629,19 +2674,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K37">
-        <v>0.3773584905660378</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2653,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2661,49 +2706,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5357142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K38">
+        <v>0.4</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>30</v>
-      </c>
-      <c r="D38">
-        <v>30</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>26</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K38">
-        <v>0.3695652173913043</v>
-      </c>
-      <c r="L38">
-        <v>34</v>
-      </c>
-      <c r="M38">
-        <v>34</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2711,13 +2756,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5333333333333333</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2729,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K39">
-        <v>0.360655737704918</v>
+        <v>0.3972691807542263</v>
       </c>
       <c r="L39">
-        <v>44</v>
+        <v>611</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>614</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2750,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>78</v>
+        <v>927</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2761,13 +2806,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5238095238095238</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D40">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2779,19 +2824,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K40">
-        <v>0.3478260869565217</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2803,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2811,13 +2856,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2829,19 +2874,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K41">
-        <v>0.3146362839614373</v>
+        <v>0.368</v>
       </c>
       <c r="L41">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="M41">
-        <v>359</v>
+        <v>46</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2853,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>782</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2861,13 +2906,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2879,31 +2924,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K42">
-        <v>0.2204724409448819</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2911,13 +2956,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.46875</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2929,19 +2974,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K43">
-        <v>0.2027972027972028</v>
+        <v>0.3298245614035088</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2950,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>114</v>
+        <v>764</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2961,37 +3006,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4583333333333333</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E44">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K44">
-        <v>0.1825396825396825</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3003,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3011,13 +3056,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4571428571428571</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3032,16 +3077,16 @@
         <v>19</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K45">
-        <v>0.1485148514851485</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3053,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3061,13 +3106,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4420289855072464</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C46">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3079,31 +3124,31 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="K46">
-        <v>0.1428571428571428</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>246</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3111,13 +3156,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4395604395604396</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3129,19 +3174,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K47">
-        <v>0.1203208556149733</v>
+        <v>0.234375</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3153,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>329</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3161,37 +3206,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4285714285714285</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C48">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="D48">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K48">
-        <v>0.12</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3203,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>110</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3211,13 +3256,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4186046511627907</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C49">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3229,31 +3274,31 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K49">
-        <v>0.1016260162601626</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>221</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3261,13 +3306,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4157303370786517</v>
+        <v>0.5</v>
       </c>
       <c r="C50">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3279,31 +3324,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="K50">
-        <v>0.09900990099009901</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N50">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="O50">
-        <v>0.13</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>182</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3311,13 +3356,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3955696202531646</v>
+        <v>0.4968354430379747</v>
       </c>
       <c r="C51">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D51">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3329,31 +3374,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="K51">
-        <v>0.08354430379746836</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="L51">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>362</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3361,13 +3406,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3947368421052632</v>
+        <v>0.475</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3379,31 +3424,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K52">
-        <v>0.08122503328894808</v>
+        <v>0.1310160427807487</v>
       </c>
       <c r="L52">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="M52">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="N52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>690</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3411,13 +3456,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3918918918918919</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3429,31 +3474,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K53">
-        <v>0.06790123456790123</v>
+        <v>0.1225033288948069</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>302</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3461,13 +3506,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.375</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3479,31 +3524,31 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K54">
-        <v>0.06228373702422145</v>
+        <v>0.121875</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3511,13 +3556,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3715846994535519</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C55">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D55">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3529,31 +3574,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="K55">
-        <v>0.01935483870967742</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M55">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N55">
-        <v>0.44</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0.5600000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>760</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3561,13 +3606,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3529411764705883</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3579,7 +3624,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K56">
+        <v>0.09414758269720101</v>
+      </c>
+      <c r="L56">
+        <v>37</v>
+      </c>
+      <c r="M56">
+        <v>40</v>
+      </c>
+      <c r="N56">
+        <v>0.93</v>
+      </c>
+      <c r="O56">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3587,13 +3656,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3504273504273504</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3605,7 +3674,31 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K57">
+        <v>0.08650519031141868</v>
+      </c>
+      <c r="L57">
+        <v>25</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>0.96</v>
+      </c>
+      <c r="O57">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3613,13 +3706,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3207547169811321</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3631,7 +3724,31 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L58">
+        <v>15</v>
+      </c>
+      <c r="M58">
+        <v>16</v>
+      </c>
+      <c r="N58">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O58">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3639,13 +3756,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3076923076923077</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3657,7 +3774,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>54</v>
+        <v>168</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K59">
+        <v>0.07920792079207921</v>
+      </c>
+      <c r="L59">
+        <v>16</v>
+      </c>
+      <c r="M59">
+        <v>19</v>
+      </c>
+      <c r="N59">
+        <v>0.84</v>
+      </c>
+      <c r="O59">
+        <v>0.16</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3665,13 +3806,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3035714285714285</v>
+        <v>0.3825136612021858</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3683,7 +3824,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>39</v>
+        <v>113</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K60">
+        <v>0.05720823798627003</v>
+      </c>
+      <c r="L60">
+        <v>25</v>
+      </c>
+      <c r="M60">
+        <v>35</v>
+      </c>
+      <c r="N60">
+        <v>0.71</v>
+      </c>
+      <c r="O60">
+        <v>0.29</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3691,13 +3856,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2905982905982906</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C61">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3709,7 +3874,31 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>83</v>
+        <v>38</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K61">
+        <v>0.04316546762589928</v>
+      </c>
+      <c r="L61">
+        <v>24</v>
+      </c>
+      <c r="M61">
+        <v>33</v>
+      </c>
+      <c r="N61">
+        <v>0.73</v>
+      </c>
+      <c r="O61">
+        <v>0.27</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>532</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3717,25 +3906,49 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2823529411764706</v>
+        <v>0.355</v>
       </c>
       <c r="C62">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E62">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K62">
+        <v>0.02575107296137339</v>
+      </c>
+      <c r="L62">
+        <v>18</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>0.75</v>
+      </c>
+      <c r="O62">
+        <v>0.25</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>681</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3743,25 +3956,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.273015873015873</v>
+        <v>0.3359375</v>
       </c>
       <c r="C63">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D63">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="E63">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>229</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3769,13 +3982,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.26</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C64">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3787,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>148</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3795,13 +4008,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2596439169139466</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C65">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3813,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>499</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3821,25 +4034,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2407407407407407</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C66">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D66">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3847,13 +4060,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2380952380952381</v>
+        <v>0.3149606299212598</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3865,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3873,13 +4086,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2342857142857143</v>
+        <v>0.3125</v>
       </c>
       <c r="C68">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D68">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3891,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3899,25 +4112,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2164948453608248</v>
+        <v>0.304093567251462</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D69">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E69">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3925,25 +4138,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2047244094488189</v>
+        <v>0.2942050520059435</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="E70">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>101</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3951,13 +4164,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2026431718061674</v>
+        <v>0.2928571428571429</v>
       </c>
       <c r="C71">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D71">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3969,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>362</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3977,13 +4190,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C72">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3995,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4003,25 +4216,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1852986217457887</v>
+        <v>0.2466960352422908</v>
       </c>
       <c r="C73">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D73">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E73">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>532</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4029,25 +4242,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1824324324324324</v>
+        <v>0.2305475504322766</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>121</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4055,25 +4268,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1568627450980392</v>
+        <v>0.2256410256410256</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D75">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4081,25 +4294,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1560693641618497</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C76">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>292</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4107,13 +4320,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1559139784946237</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="C77">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -4125,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>157</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4133,25 +4346,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1495327102803738</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C78">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D78">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4159,25 +4372,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1338582677165354</v>
+        <v>0.2158730158730159</v>
       </c>
       <c r="C79">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D79">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>110</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4185,25 +4398,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1258992805755396</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C80">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E80">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F80">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>243</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4211,25 +4424,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1238317757009346</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="C81">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D81">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="E81">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F81">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>375</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4237,13 +4450,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.12</v>
+        <v>0.2009345794392523</v>
       </c>
       <c r="C82">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D82">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -4255,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4263,25 +4476,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1153846153846154</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D83">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4289,13 +4502,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1145833333333333</v>
+        <v>0.1725190839694656</v>
       </c>
       <c r="C84">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="D84">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4307,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>170</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4315,25 +4528,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1117021276595745</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C85">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D85">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E85">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4341,25 +4554,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.09947643979057591</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4367,25 +4580,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.09557109557109557</v>
+        <v>0.1418918918918919</v>
       </c>
       <c r="C87">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>388</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4393,25 +4606,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.09333333333333334</v>
+        <v>0.1267217630853995</v>
       </c>
       <c r="C88">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D88">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E88">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F88">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>272</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4419,25 +4632,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09302325581395349</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D89">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4445,25 +4658,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09090909090909091</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D90">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E90">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F90">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>170</v>
+        <v>375</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4471,25 +4684,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08781869688385269</v>
+        <v>0.12</v>
       </c>
       <c r="C91">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D91">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E91">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>322</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4497,25 +4710,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08536585365853659</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C92">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E92">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="F92">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4523,25 +4736,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.07967032967032966</v>
+        <v>0.1029900332225914</v>
       </c>
       <c r="C93">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E93">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>335</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4549,25 +4762,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.0599250936329588</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="C94">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>251</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4575,25 +4788,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04635761589403974</v>
+        <v>0.09375</v>
       </c>
       <c r="C95">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D95">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E95">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F95">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>576</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4601,25 +4814,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.03992015968063872</v>
+        <v>0.09345794392523364</v>
       </c>
       <c r="C96">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D96">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E96">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F96">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>481</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4627,25 +4840,207 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.02439024390243903</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>22</v>
+      </c>
+      <c r="E97">
+        <v>0.09</v>
+      </c>
+      <c r="F97">
+        <v>0.91</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C98">
         <v>19</v>
       </c>
-      <c r="D97">
-        <v>34</v>
-      </c>
-      <c r="E97">
-        <v>0.44</v>
-      </c>
-      <c r="F97">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>760</v>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>0.05</v>
+      </c>
+      <c r="F98">
+        <v>0.95</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.07024793388429752</v>
+      </c>
+      <c r="C99">
+        <v>17</v>
+      </c>
+      <c r="D99">
+        <v>23</v>
+      </c>
+      <c r="E99">
+        <v>0.26</v>
+      </c>
+      <c r="F99">
+        <v>0.74</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.06923076923076923</v>
+      </c>
+      <c r="C100">
+        <v>54</v>
+      </c>
+      <c r="D100">
+        <v>68</v>
+      </c>
+      <c r="E100">
+        <v>0.21</v>
+      </c>
+      <c r="F100">
+        <v>0.79</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="E101">
+        <v>0.2</v>
+      </c>
+      <c r="F101">
+        <v>0.8</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.04340567612687813</v>
+      </c>
+      <c r="C102">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <v>35</v>
+      </c>
+      <c r="E102">
+        <v>0.26</v>
+      </c>
+      <c r="F102">
+        <v>0.74</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.04191616766467066</v>
+      </c>
+      <c r="C103">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>24</v>
+      </c>
+      <c r="E103">
+        <v>0.12</v>
+      </c>
+      <c r="F103">
+        <v>0.88</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.03879310344827586</v>
+      </c>
+      <c r="C104">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>23</v>
+      </c>
+      <c r="E104">
+        <v>0.22</v>
+      </c>
+      <c r="F104">
+        <v>0.78</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
